--- a/ModeRecognition/KNN/ManhattanDistance.xlsx
+++ b/ModeRecognition/KNN/ManhattanDistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ModeRecognition\KNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5286FE5C-8AE1-4535-A575-364668AC0A37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A206C-959F-4F48-9062-D641FBF01FA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{3076ED65-D1EB-4DFA-8688-09D69BE3C4A4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="201">
   <si>
     <t>K值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,14 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>63.954000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63.189000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>126.798000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126.533000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126.783000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>191.504000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>190.471000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189.643000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>256.659000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>254.034000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>320.956000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,14 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>324.174000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>323.564000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>389.065000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,14 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>383.660000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>382.817000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>452.098000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,14 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>449.145000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>442.021000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>515.395000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,14 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>523.830000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>504.225000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>583.551000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,14 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>587.456000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>571.564000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>646.474000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,11 +408,431 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>633.476000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>631.149000 seconds</t>
+    <t>62.751000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.548000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.563000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.407000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.750000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.266000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64.547000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.219000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.110000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.782000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126.486000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128.657000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.423000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.970000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126.768000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128.923000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126.877000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.767000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.549000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128.236000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.689000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.268000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.471000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.158000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.345000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.830000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.158000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.611000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.299000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.423000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.986000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256.893000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.425000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.846000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256.956000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>254.378000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257.190000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.549000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.784000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>254.410000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256.862000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.659000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320.831000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320.144000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320.581000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319.159000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321.519000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319.097000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320.660000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319.863000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320.737000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321.003000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322.956000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383.879000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382.223000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383.926000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384.317000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383.379000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384.551000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383.426000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383.614000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384.520000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>385.613000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>449.395000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451.706000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448.832000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446.692000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448.129000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446.583000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>447.349000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>449.051000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450.316000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450.426000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448.848000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513.599000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510.990000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510.647000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511.474000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511.037000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510.381000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513.051000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510.677000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510.412000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512.958000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513.302000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576.068000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>579.302000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>578.224000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576.084000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>575.006000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576.865000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576.928000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576.053000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>575.740000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>577.271000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>577.021000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640.632000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>639.757000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>637.679000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>642.944000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>639.350000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>638.335000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>641.131000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>641.382000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640.288000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>642.568000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>643.178000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F51A87-3755-489C-9626-B0F2DB334D33}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H110"/>
+      <selection sqref="A1:H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1136,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1144,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>94.05</v>
+        <v>91.04</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1170,25 +1522,25 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>92.13</v>
+        <v>90.98</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,25 +1548,25 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>93.98</v>
+        <v>90.74</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1222,25 +1574,25 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>93.15</v>
+        <v>90.93</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1248,25 +1600,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>93.65</v>
+        <v>90.77</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,25 +1626,25 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>93.36</v>
+        <v>90.71</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1300,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>93.57</v>
+        <v>90.43</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,25 +1678,25 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>93.14</v>
+        <v>90.39</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1352,25 +1704,25 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>93.22</v>
+        <v>90.24</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1378,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1390,13 +1742,13 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>93.09</v>
+        <v>94.05</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1404,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1416,13 +1768,13 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>93.08</v>
+        <v>92.13</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1430,25 +1782,25 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>94.62</v>
+        <v>93.98</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1456,25 +1808,25 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>93.11</v>
+        <v>93.15</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,25 +1834,25 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>94.58</v>
+        <v>93.65</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1508,25 +1860,25 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>94.26</v>
+        <v>93.36</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1534,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>94.52</v>
+        <v>93.57</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1560,25 +1912,25 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>94.31</v>
+        <v>93.14</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1586,25 +1938,25 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>94.51</v>
+        <v>93.22</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1612,25 +1964,25 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>94.11</v>
+        <v>93.09</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1638,25 +1990,25 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>94.31</v>
+        <v>93.08</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1664,25 +2016,25 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>94.13</v>
+        <v>92.84</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1690,25 +2042,25 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>94.18</v>
+        <v>92.91</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1716,25 +2068,25 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>95.05</v>
+        <v>92.78</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1742,25 +2094,25 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>93.71</v>
+        <v>92.77</v>
       </c>
       <c r="G35" t="s">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1768,25 +2120,25 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>94.97</v>
+        <v>92.42</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1794,25 +2146,25 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>94.55</v>
+        <v>92.39</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1820,25 +2172,25 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>95.07</v>
+        <v>92.12</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1846,25 +2198,25 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>94.58</v>
+        <v>92.18</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,25 +2224,25 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>94.88</v>
+        <v>91.97</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1898,25 +2250,25 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>94.61</v>
+        <v>94.62</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1924,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>94.82</v>
+        <v>93.11</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1950,25 +2302,25 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>94.49</v>
+        <v>94.58</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1976,25 +2328,25 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
       </c>
       <c r="F44">
-        <v>94.56</v>
+        <v>94.26</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2002,25 +2354,25 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>95.42</v>
+        <v>94.52</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2028,25 +2380,25 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
       </c>
       <c r="F46">
-        <v>94.16</v>
+        <v>94.31</v>
       </c>
       <c r="G46" t="s">
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2054,25 +2406,25 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>95.31</v>
+        <v>94.51</v>
       </c>
       <c r="G47" t="s">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2080,25 +2432,25 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>95.02</v>
+        <v>94.11</v>
       </c>
       <c r="G48" t="s">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2106,25 +2458,25 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
       </c>
       <c r="F49">
-        <v>95.38</v>
+        <v>94.31</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2132,25 +2484,25 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>95.03</v>
+        <v>94.13</v>
       </c>
       <c r="G50" t="s">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2158,25 +2510,25 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
       </c>
       <c r="F51">
-        <v>95.35</v>
+        <v>94.18</v>
       </c>
       <c r="G51" t="s">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2184,25 +2536,25 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
       </c>
       <c r="F52">
-        <v>94.93</v>
+        <v>93.99</v>
       </c>
       <c r="G52" t="s">
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2210,25 +2562,25 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
       </c>
       <c r="F53">
-        <v>95.2</v>
+        <v>93.95</v>
       </c>
       <c r="G53" t="s">
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2236,25 +2588,25 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>94.86</v>
+        <v>93.68</v>
       </c>
       <c r="G54" t="s">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2262,25 +2614,25 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
       </c>
       <c r="F55">
-        <v>94.88</v>
+        <v>93.72</v>
       </c>
       <c r="G55" t="s">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2288,25 +2640,25 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>95.71</v>
+        <v>93.47</v>
       </c>
       <c r="G56" t="s">
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2314,25 +2666,25 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
       </c>
       <c r="F57">
-        <v>94.5</v>
+        <v>93.6</v>
       </c>
       <c r="G57" t="s">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2340,25 +2692,25 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
       </c>
       <c r="F58">
-        <v>95.6</v>
+        <v>93.46</v>
       </c>
       <c r="G58" t="s">
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2366,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
       <c r="F59">
-        <v>95.41</v>
+        <v>93.51</v>
       </c>
       <c r="G59" t="s">
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2392,25 +2744,25 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
       </c>
       <c r="F60">
-        <v>95.7</v>
+        <v>93.32</v>
       </c>
       <c r="G60" t="s">
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2418,25 +2770,25 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
       </c>
       <c r="F61">
-        <v>95.24</v>
+        <v>95.05</v>
       </c>
       <c r="G61" t="s">
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2444,25 +2796,25 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
       </c>
       <c r="F62">
-        <v>95.52</v>
+        <v>93.71</v>
       </c>
       <c r="G62" t="s">
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2470,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="E63" t="s">
         <v>2</v>
       </c>
       <c r="F63">
-        <v>95.34</v>
+        <v>94.97</v>
       </c>
       <c r="G63" t="s">
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2496,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
       </c>
       <c r="F64">
-        <v>95.6</v>
+        <v>94.55</v>
       </c>
       <c r="G64" t="s">
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2522,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>95.36</v>
+        <v>95.07</v>
       </c>
       <c r="G65" t="s">
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2548,25 +2900,25 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>95.43</v>
+        <v>94.58</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2574,25 +2926,25 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
       </c>
       <c r="F67">
-        <v>95.79</v>
+        <v>94.88</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2600,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>94.81</v>
+        <v>94.61</v>
       </c>
       <c r="G68" t="s">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2626,25 +2978,25 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E69" t="s">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>95.81</v>
+        <v>94.82</v>
       </c>
       <c r="G69" t="s">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2652,25 +3004,25 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E70" t="s">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>95.59</v>
+        <v>94.49</v>
       </c>
       <c r="G70" t="s">
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2678,25 +3030,25 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>95.84</v>
+        <v>94.56</v>
       </c>
       <c r="G71" t="s">
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2704,25 +3056,25 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E72" t="s">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>95.51</v>
+        <v>94.31</v>
       </c>
       <c r="G72" t="s">
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2730,25 +3082,25 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>95.78</v>
+        <v>94.47</v>
       </c>
       <c r="G73" t="s">
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2756,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
       </c>
       <c r="F74">
-        <v>95.58</v>
+        <v>94.28</v>
       </c>
       <c r="G74" t="s">
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2782,25 +3134,25 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>95.74</v>
+        <v>94.33</v>
       </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2808,25 +3160,25 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>95.63</v>
+        <v>94.14</v>
       </c>
       <c r="G76" t="s">
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2834,25 +3186,25 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="E77" t="s">
         <v>2</v>
       </c>
       <c r="F77">
-        <v>95.72</v>
+        <v>94.08</v>
       </c>
       <c r="G77" t="s">
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2860,25 +3212,25 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="E78" t="s">
         <v>2</v>
       </c>
       <c r="F78">
-        <v>95.91</v>
+        <v>93.91</v>
       </c>
       <c r="G78" t="s">
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2886,25 +3238,25 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>95</v>
+        <v>93.98</v>
       </c>
       <c r="G79" t="s">
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2912,25 +3264,25 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>96</v>
+        <v>93.87</v>
       </c>
       <c r="G80" t="s">
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2938,25 +3290,25 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>95.7</v>
+        <v>95.42</v>
       </c>
       <c r="G81" t="s">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E82" t="s">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>95.95</v>
+        <v>94.16</v>
       </c>
       <c r="G82" t="s">
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2990,25 +3342,25 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>95.68</v>
+        <v>95.31</v>
       </c>
       <c r="G83" t="s">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3016,25 +3368,25 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E84" t="s">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>95.86</v>
+        <v>95.02</v>
       </c>
       <c r="G84" t="s">
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3042,25 +3394,25 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E85" t="s">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>95.75</v>
+        <v>95.38</v>
       </c>
       <c r="G85" t="s">
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3068,25 +3420,25 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E86" t="s">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>95.75</v>
+        <v>95.03</v>
       </c>
       <c r="G86" t="s">
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,25 +3446,25 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>95.8</v>
+        <v>95.35</v>
       </c>
       <c r="G87" t="s">
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3120,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="E88" t="s">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>95.8</v>
+        <v>94.93</v>
       </c>
       <c r="G88" t="s">
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3146,25 +3498,25 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E89" t="s">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>96.18</v>
+        <v>95.2</v>
       </c>
       <c r="G89" t="s">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3172,25 +3524,25 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>95.14</v>
+        <v>94.86</v>
       </c>
       <c r="G90" t="s">
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
       </c>
       <c r="F91">
-        <v>96.29</v>
+        <v>94.88</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,25 +3576,25 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
       </c>
       <c r="F92">
-        <v>95.78</v>
+        <v>94.75</v>
       </c>
       <c r="G92" t="s">
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,25 +3602,25 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
       </c>
       <c r="F93">
-        <v>95.99</v>
+        <v>94.82</v>
       </c>
       <c r="G93" t="s">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3276,25 +3628,25 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
       </c>
       <c r="F94">
-        <v>95.83</v>
+        <v>94.79</v>
       </c>
       <c r="G94" t="s">
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3302,25 +3654,25 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
       </c>
       <c r="F95">
-        <v>96.07</v>
+        <v>94.74</v>
       </c>
       <c r="G95" t="s">
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,25 +3680,25 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
       </c>
       <c r="F96">
-        <v>95.78</v>
+        <v>94.56</v>
       </c>
       <c r="G96" t="s">
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3354,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E97" t="s">
         <v>2</v>
       </c>
       <c r="F97">
-        <v>95.91</v>
+        <v>94.54</v>
       </c>
       <c r="G97" t="s">
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3380,25 +3732,25 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
       </c>
       <c r="F98">
-        <v>95.7</v>
+        <v>94.43</v>
       </c>
       <c r="G98" t="s">
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3406,25 +3758,25 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>54000</v>
+        <v>30000</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>95.75</v>
+        <v>94.4</v>
       </c>
       <c r="G99" t="s">
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3432,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
       </c>
       <c r="F100">
-        <v>96.31</v>
+        <v>94.37</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3458,25 +3810,25 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
       </c>
       <c r="F101">
-        <v>95.18</v>
+        <v>95.71</v>
       </c>
       <c r="G101" t="s">
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3484,25 +3836,25 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="F102">
-        <v>96.39</v>
+        <v>94.5</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3510,25 +3862,25 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="F103">
-        <v>95.89</v>
+        <v>95.6</v>
       </c>
       <c r="G103" t="s">
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,25 +3888,25 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>96.19</v>
+        <v>95.41</v>
       </c>
       <c r="G104" t="s">
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3562,25 +3914,25 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="F105">
-        <v>95.91</v>
+        <v>95.7</v>
       </c>
       <c r="G105" t="s">
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3588,25 +3940,25 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
       </c>
       <c r="F106">
-        <v>96.15</v>
+        <v>95.24</v>
       </c>
       <c r="G106" t="s">
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,25 +3966,25 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
       <c r="F107">
-        <v>95.77</v>
+        <v>95.52</v>
       </c>
       <c r="G107" t="s">
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3640,25 +3992,25 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
       </c>
       <c r="F108">
-        <v>95.97</v>
+        <v>95.34</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3666,25 +4018,25 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
       </c>
       <c r="F109">
-        <v>95.73</v>
+        <v>95.6</v>
       </c>
       <c r="G109" t="s">
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3692,25 +4044,2365 @@
         <v>0</v>
       </c>
       <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>36000</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>95.36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
         <v>11</v>
       </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110">
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>36000</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>95.43</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>36000</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>95.14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>36000</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>95.25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>36000</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>94.98</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>36000</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>95.08</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>36000</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>94.93</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>36000</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>94.91</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>36000</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>94.91</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>36000</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>94.87</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>36000</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>94.62</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>42000</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>95.79</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>42000</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>94.81</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>42000</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>95.81</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>42000</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>95.59</v>
+      </c>
+      <c r="G124" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>42000</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>95.84</v>
+      </c>
+      <c r="G125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>42000</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>95.51</v>
+      </c>
+      <c r="G126" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>42000</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>95.78</v>
+      </c>
+      <c r="G127" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>42000</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>95.58</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>42000</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>95.74</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>42000</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>95.63</v>
+      </c>
+      <c r="G130" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>42000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>95.72</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>42000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>95.54</v>
+      </c>
+      <c r="G132" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>42000</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>95.33</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>42000</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>95.21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>42000</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>95.22</v>
+      </c>
+      <c r="G135" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>42000</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>95.11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>42000</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>95.09</v>
+      </c>
+      <c r="G137" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>42000</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>95.05</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>42000</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>95.13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>42000</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>95.06</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>48000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>95.91</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>48000</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>95</v>
+      </c>
+      <c r="G142" t="s">
+        <v>3</v>
+      </c>
+      <c r="H142" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>48000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>96</v>
+      </c>
+      <c r="G143" t="s">
+        <v>3</v>
+      </c>
+      <c r="H143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>48000</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>95.7</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>48000</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>95.95</v>
+      </c>
+      <c r="G145" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>48000</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>95.68</v>
+      </c>
+      <c r="G146" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>48000</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>95.86</v>
+      </c>
+      <c r="G147" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>48000</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>95.75</v>
+      </c>
+      <c r="G148" t="s">
+        <v>3</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>48000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>95.75</v>
+      </c>
+      <c r="G149" t="s">
+        <v>3</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>48000</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>95.8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>48000</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>95.8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>48000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>95.78</v>
+      </c>
+      <c r="G152" t="s">
+        <v>3</v>
+      </c>
+      <c r="H152" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>48000</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>95.66</v>
+      </c>
+      <c r="G153" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>48000</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>95.48</v>
+      </c>
+      <c r="G154" t="s">
+        <v>3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>48000</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>95.54</v>
+      </c>
+      <c r="G155" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>48000</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>95.34</v>
+      </c>
+      <c r="G156" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>48000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>95.3</v>
+      </c>
+      <c r="G157" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>48000</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>95.34</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>48000</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>95.23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>48000</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>95.21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>54000</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>96.18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>54000</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>95.14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>54000</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>96.29</v>
+      </c>
+      <c r="G163" t="s">
+        <v>3</v>
+      </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>54000</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>95.78</v>
+      </c>
+      <c r="G164" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>54000</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>95.99</v>
+      </c>
+      <c r="G165" t="s">
+        <v>3</v>
+      </c>
+      <c r="H165" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>54000</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>95.83</v>
+      </c>
+      <c r="G166" t="s">
+        <v>3</v>
+      </c>
+      <c r="H166" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>54000</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>96.07</v>
+      </c>
+      <c r="G167" t="s">
+        <v>3</v>
+      </c>
+      <c r="H167" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>54000</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>95.78</v>
+      </c>
+      <c r="G168" t="s">
+        <v>3</v>
+      </c>
+      <c r="H168" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>54000</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>95.91</v>
+      </c>
+      <c r="G169" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>54000</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>95.7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>54000</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>95.75</v>
+      </c>
+      <c r="G171" t="s">
+        <v>3</v>
+      </c>
+      <c r="H171" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>54000</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>95.71</v>
+      </c>
+      <c r="G172" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>54000</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>95.75</v>
+      </c>
+      <c r="G173" t="s">
+        <v>3</v>
+      </c>
+      <c r="H173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>54000</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>95.63</v>
+      </c>
+      <c r="G174" t="s">
+        <v>3</v>
+      </c>
+      <c r="H174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>54000</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>95.62</v>
+      </c>
+      <c r="G175" t="s">
+        <v>3</v>
+      </c>
+      <c r="H175" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>54000</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>95.51</v>
+      </c>
+      <c r="G176" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>54000</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>95.51</v>
+      </c>
+      <c r="G177" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>54000</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>95.34</v>
+      </c>
+      <c r="G178" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>54000</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>95.3</v>
+      </c>
+      <c r="G179" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>20</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>54000</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>95.26</v>
+      </c>
+      <c r="G180" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181">
         <v>60000</v>
       </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-      <c r="F110">
+      <c r="E181" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>96.31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>60000</v>
+      </c>
+      <c r="E182" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>95.18</v>
+      </c>
+      <c r="G182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>60000</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>96.39</v>
+      </c>
+      <c r="G183" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>60000</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>95.89</v>
+      </c>
+      <c r="G184" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>60000</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>96.19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>60000</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>95.91</v>
+      </c>
+      <c r="G186" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>60000</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>96.15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>60000</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>95.77</v>
+      </c>
+      <c r="G188" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>60000</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>95.97</v>
+      </c>
+      <c r="G189" t="s">
+        <v>3</v>
+      </c>
+      <c r="H189" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>60000</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>95.73</v>
+      </c>
+      <c r="G190" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>60000</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191">
         <v>95.85</v>
       </c>
-      <c r="G110" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110" t="s">
-        <v>112</v>
+      <c r="G191" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>60000</v>
+      </c>
+      <c r="E192" t="s">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>95.74</v>
+      </c>
+      <c r="G192" t="s">
+        <v>3</v>
+      </c>
+      <c r="H192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>60000</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>95.77</v>
+      </c>
+      <c r="G193" t="s">
+        <v>3</v>
+      </c>
+      <c r="H193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>60000</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>95.72</v>
+      </c>
+      <c r="G194" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>60000</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>95.68</v>
+      </c>
+      <c r="G195" t="s">
+        <v>3</v>
+      </c>
+      <c r="H195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>60000</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>95.52</v>
+      </c>
+      <c r="G196" t="s">
+        <v>3</v>
+      </c>
+      <c r="H196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>17</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>60000</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>95.71</v>
+      </c>
+      <c r="G197" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>60000</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>95.56</v>
+      </c>
+      <c r="G198" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>19</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>60000</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>95.57</v>
+      </c>
+      <c r="G199" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>60000</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>95.5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
